--- a/generated-tests/firebrigade/backend/direct/metrics.xlsx
+++ b/generated-tests/firebrigade/backend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460926F0-1BCA-4524-83C7-F8427E0637EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE81AEA-37CF-4B6C-98A4-6CEECEFF029E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Test</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>user-1.spec</t>
+  </si>
+  <si>
+    <t>user-2.spec</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <dimension ref="D5:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,23 +1122,51 @@
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D21" s="10"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="D21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="21">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2">
+        <v>100</v>
+      </c>
+      <c r="H21" s="22">
+        <v>100</v>
+      </c>
+      <c r="I21" s="6">
+        <v>21</v>
+      </c>
+      <c r="J21" s="6">
+        <v>19</v>
+      </c>
+      <c r="K21" s="6">
+        <v>7</v>
+      </c>
+      <c r="L21" s="6">
+        <v>14</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="12"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="24"/>
+      <c r="E22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="23">
+        <v>86</v>
+      </c>
+      <c r="G22" s="3">
+        <v>68</v>
+      </c>
+      <c r="H22" s="24">
+        <v>86</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>

--- a/generated-tests/firebrigade/backend/direct/metrics.xlsx
+++ b/generated-tests/firebrigade/backend/direct/metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE81AEA-37CF-4B6C-98A4-6CEECEFF029E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DDC2C0-8F7E-4547-818E-328D76FD61E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Test</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>user-2.spec</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
+  </si>
+  <si>
+    <t>nur für</t>
+  </si>
+  <si>
+    <t>Service</t>
   </si>
 </sst>
 </file>
@@ -129,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +172,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -330,11 +348,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -361,6 +431,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -700,20 +787,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="D5:M32"/>
+  <dimension ref="C5:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="13" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="32"/>
       <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
@@ -745,7 +834,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="32"/>
       <c r="D6" s="10"/>
       <c r="E6" s="14"/>
       <c r="F6" s="19"/>
@@ -757,7 +847,8 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="32"/>
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
@@ -789,7 +880,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="32"/>
       <c r="D8" s="12"/>
       <c r="E8" s="16" t="s">
         <v>12</v>
@@ -809,7 +901,8 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="32"/>
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
@@ -841,7 +934,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="32"/>
       <c r="D10" s="12"/>
       <c r="E10" s="16" t="s">
         <v>12</v>
@@ -861,7 +955,8 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="32"/>
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
@@ -893,7 +988,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="32"/>
       <c r="D12" s="12"/>
       <c r="E12" s="16" t="s">
         <v>12</v>
@@ -913,7 +1009,8 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="32"/>
       <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
@@ -945,7 +1042,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="32"/>
       <c r="D14" s="12"/>
       <c r="E14" s="16" t="s">
         <v>12</v>
@@ -965,7 +1063,8 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="32"/>
       <c r="D15" s="11" t="s">
         <v>17</v>
       </c>
@@ -993,11 +1092,12 @@
       <c r="L15" s="6">
         <v>9</v>
       </c>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="32"/>
       <c r="D16" s="12"/>
       <c r="E16" s="16" t="s">
         <v>12</v>
@@ -1017,7 +1117,8 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="32"/>
       <c r="D17" s="11" t="s">
         <v>18</v>
       </c>
@@ -1049,7 +1150,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="32"/>
       <c r="D18" s="12"/>
       <c r="E18" s="16" t="s">
         <v>12</v>
@@ -1069,7 +1171,8 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="32"/>
       <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
@@ -1101,7 +1204,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="32"/>
       <c r="D20" s="12"/>
       <c r="E20" s="16" t="s">
         <v>12</v>
@@ -1121,7 +1225,8 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="32"/>
       <c r="D21" s="11" t="s">
         <v>20</v>
       </c>
@@ -1153,7 +1258,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="32"/>
       <c r="D22" s="12"/>
       <c r="E22" s="16" t="s">
         <v>12</v>
@@ -1173,7 +1279,8 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="32"/>
       <c r="D23" s="11"/>
       <c r="E23" s="15"/>
       <c r="F23" s="21"/>
@@ -1185,55 +1292,91 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D24" s="12"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D25" s="11"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D26" s="12"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31">
+        <f>SUM(I7:I21)</f>
+        <v>124</v>
+      </c>
+      <c r="J24" s="31">
+        <f>SUM(J7:J21)</f>
+        <v>110</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="29">
+        <f>ROUND(AVERAGE(F8,F10,F12,F14,F16,F20,F22),0)</f>
+        <v>75</v>
+      </c>
+      <c r="G25" s="29">
+        <f>ROUND(AVERAGE(G8,G10,G12,G14,G16,G18,G20,G22),0)</f>
+        <v>42</v>
+      </c>
+      <c r="H25" s="30">
+        <f>ROUND(AVERAGE(H8,H10,H12,H14,H16,H18,H20,H22),0)</f>
+        <v>76</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31">
+        <f>ROUND(AVERAGE(K7:K21),0)</f>
+        <v>6</v>
+      </c>
+      <c r="L25" s="31">
+        <f>ROUND(AVERAGE(L7:L21),0)</f>
+        <v>10</v>
+      </c>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="32"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="32"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="20"/>
+      <c r="F27" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="32"/>
       <c r="D28" s="10"/>
       <c r="E28" s="14"/>
       <c r="F28" s="19"/>
@@ -1245,7 +1388,8 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="32"/>
       <c r="D29" s="10"/>
       <c r="E29" s="14"/>
       <c r="F29" s="19"/>
@@ -1257,7 +1401,8 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="32"/>
       <c r="D30" s="10"/>
       <c r="E30" s="14"/>
       <c r="F30" s="19"/>
@@ -1269,7 +1414,8 @@
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="32"/>
       <c r="D31" s="10"/>
       <c r="E31" s="14"/>
       <c r="F31" s="19"/>
@@ -1281,7 +1427,8 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="32"/>
       <c r="D32" s="10"/>
       <c r="E32" s="14"/>
       <c r="F32" s="19"/>

--- a/generated-tests/firebrigade/backend/direct/metrics.xlsx
+++ b/generated-tests/firebrigade/backend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DDC2C0-8F7E-4547-818E-328D76FD61E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E487C2F8-5888-4119-9DC8-5B2B82BABB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Test</t>
   </si>
@@ -111,6 +111,27 @@
   </si>
   <si>
     <t>Service</t>
+  </si>
+  <si>
+    <t>abgedeckt</t>
+  </si>
+  <si>
+    <t>insgesamt</t>
+  </si>
+  <si>
+    <t>fehlend</t>
+  </si>
+  <si>
+    <t>findAll, createEntry, finishEntry, assignEntry</t>
+  </si>
+  <si>
+    <t>Wesentliche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createRequest, confirmCreateRequest, createJoinRequest, acceptRequest, </t>
+  </si>
+  <si>
+    <t>declineRequest, addPicture, deletePicture</t>
   </si>
 </sst>
 </file>
@@ -404,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -447,6 +468,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="C5:M32"/>
+  <dimension ref="C3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,10 +829,19 @@
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="13" width="15.7109375" customWidth="1"/>
+    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="85.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="32"/>
       <c r="D5" s="9" t="s">
         <v>0</v>
@@ -833,8 +873,17 @@
       <c r="M5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N5" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="32"/>
       <c r="D6" s="10"/>
       <c r="E6" s="14"/>
@@ -846,8 +895,11 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N6" s="38"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="32"/>
       <c r="D7" s="11" t="s">
         <v>10</v>
@@ -879,8 +931,17 @@
       <c r="M7" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N7" s="39">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>4</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="32"/>
       <c r="D8" s="12"/>
       <c r="E8" s="16" t="s">
@@ -900,8 +961,11 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N8" s="40"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="32"/>
       <c r="D9" s="11" t="s">
         <v>13</v>
@@ -933,8 +997,15 @@
       <c r="M9" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N9" s="39">
+        <v>4</v>
+      </c>
+      <c r="O9" s="6">
+        <v>4</v>
+      </c>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="32"/>
       <c r="D10" s="12"/>
       <c r="E10" s="16" t="s">
@@ -954,8 +1025,11 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N10" s="40"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="32"/>
       <c r="D11" s="11" t="s">
         <v>14</v>
@@ -987,8 +1061,15 @@
       <c r="M11" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N11" s="39">
+        <v>5</v>
+      </c>
+      <c r="O11" s="6">
+        <v>5</v>
+      </c>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C12" s="32"/>
       <c r="D12" s="12"/>
       <c r="E12" s="16" t="s">
@@ -1008,8 +1089,11 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N12" s="40"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13" s="32"/>
       <c r="D13" s="11" t="s">
         <v>16</v>
@@ -1041,8 +1125,15 @@
       <c r="M13" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N13" s="39">
+        <v>5</v>
+      </c>
+      <c r="O13" s="6">
+        <v>5</v>
+      </c>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C14" s="32"/>
       <c r="D14" s="12"/>
       <c r="E14" s="16" t="s">
@@ -1062,8 +1153,11 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N14" s="40"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C15" s="32"/>
       <c r="D15" s="11" t="s">
         <v>17</v>
@@ -1095,8 +1189,17 @@
       <c r="M15" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N15" s="39">
+        <v>7</v>
+      </c>
+      <c r="O15" s="6">
+        <v>14</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C16" s="32"/>
       <c r="D16" s="12"/>
       <c r="E16" s="16" t="s">
@@ -1116,8 +1219,13 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N16" s="40"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C17" s="32"/>
       <c r="D17" s="11" t="s">
         <v>18</v>
@@ -1149,8 +1257,15 @@
       <c r="M17" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N17" s="39">
+        <v>14</v>
+      </c>
+      <c r="O17" s="6">
+        <v>14</v>
+      </c>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C18" s="32"/>
       <c r="D18" s="12"/>
       <c r="E18" s="16" t="s">
@@ -1170,8 +1285,11 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N18" s="40"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C19" s="32"/>
       <c r="D19" s="11" t="s">
         <v>19</v>
@@ -1203,8 +1321,15 @@
       <c r="M19" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N19" s="39">
+        <v>15</v>
+      </c>
+      <c r="O19" s="6">
+        <v>15</v>
+      </c>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C20" s="32"/>
       <c r="D20" s="12"/>
       <c r="E20" s="16" t="s">
@@ -1224,8 +1349,11 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N20" s="40"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C21" s="32"/>
       <c r="D21" s="11" t="s">
         <v>20</v>
@@ -1257,8 +1385,15 @@
       <c r="M21" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N21" s="39">
+        <v>15</v>
+      </c>
+      <c r="O21" s="6">
+        <v>15</v>
+      </c>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C22" s="32"/>
       <c r="D22" s="12"/>
       <c r="E22" s="16" t="s">
@@ -1278,8 +1413,11 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N22" s="40"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C23" s="32"/>
       <c r="D23" s="11"/>
       <c r="E23" s="15"/>
@@ -1291,8 +1429,11 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N23" s="39"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C24" s="33" t="s">
         <v>21</v>
       </c>
@@ -1312,8 +1453,17 @@
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
-    </row>
-    <row r="25" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N24" s="41">
+        <f>SUM(N7:N21)</f>
+        <v>65</v>
+      </c>
+      <c r="O24" s="31">
+        <f>SUM(O7:O22)</f>
+        <v>76</v>
+      </c>
+      <c r="P24" s="31"/>
+    </row>
+    <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C25" s="33" t="s">
         <v>22</v>
       </c>
@@ -1342,8 +1492,11 @@
         <v>10</v>
       </c>
       <c r="M25" s="31"/>
-    </row>
-    <row r="26" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N25" s="41"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+    </row>
+    <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C26" s="32"/>
       <c r="D26" s="10"/>
       <c r="E26" s="14"/>
@@ -1355,8 +1508,11 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N26" s="42"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C27" s="32"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14"/>
@@ -1374,8 +1530,11 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N27" s="42"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C28" s="32"/>
       <c r="D28" s="10"/>
       <c r="E28" s="14"/>
@@ -1387,8 +1546,11 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N28" s="42"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C29" s="32"/>
       <c r="D29" s="10"/>
       <c r="E29" s="14"/>
@@ -1400,8 +1562,11 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N29" s="42"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C30" s="32"/>
       <c r="D30" s="10"/>
       <c r="E30" s="14"/>
@@ -1413,8 +1578,11 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N30" s="42"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C31" s="32"/>
       <c r="D31" s="10"/>
       <c r="E31" s="14"/>
@@ -1426,8 +1594,11 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N31" s="42"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C32" s="32"/>
       <c r="D32" s="10"/>
       <c r="E32" s="14"/>
@@ -1439,6 +1610,9 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/generated-tests/firebrigade/backend/direct/metrics.xlsx
+++ b/generated-tests/firebrigade/backend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E487C2F8-5888-4119-9DC8-5B2B82BABB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262A6124-77C3-41EC-9A07-057EA66ECB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Test</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>declineRequest, addPicture, deletePicture</t>
+  </si>
+  <si>
+    <t>createOne, refreshTermsOfRights, findOne, findAll</t>
   </si>
 </sst>
 </file>
@@ -820,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="C3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,12 +1325,14 @@
         <v>2</v>
       </c>
       <c r="N19" s="39">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O19" s="6">
         <v>15</v>
       </c>
-      <c r="P19" s="6"/>
+      <c r="P19" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C20" s="32"/>
@@ -1455,7 +1460,7 @@
       <c r="M24" s="31"/>
       <c r="N24" s="41">
         <f>SUM(N7:N21)</f>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O24" s="31">
         <f>SUM(O7:O22)</f>

--- a/generated-tests/firebrigade/backend/direct/metrics.xlsx
+++ b/generated-tests/firebrigade/backend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262A6124-77C3-41EC-9A07-057EA66ECB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8E18D6-93AA-469B-986C-2CC9AB0905D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Test</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>createOne, refreshTermsOfRights, findOne, findAll</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Std.-Abw.</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
   </si>
 </sst>
 </file>
@@ -823,13 +832,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="C3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="15" width="15.7109375" customWidth="1"/>
@@ -1502,42 +1511,61 @@
       <c r="P25" s="31"/>
     </row>
     <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="32"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
+      <c r="C26" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31">
+        <f>MEDIAN(K7:K21)</f>
+        <v>5.5</v>
+      </c>
+      <c r="L26" s="31">
+        <f>MEDIAN(L7:L21)</f>
+        <v>8</v>
+      </c>
+      <c r="M26" s="31"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
     </row>
     <row r="27" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C27" s="32"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
+      <c r="C27" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="29">
+        <f>ROUND(_xlfn.STDEV.P(F8,F10,F12,F14,F16,F18,F20,F22),1)</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G27" s="29">
+        <f>ROUND(_xlfn.STDEV.P(G8,G10,G12,G14,G16,G18,G20,G22),1)</f>
+        <v>41.5</v>
+      </c>
+      <c r="H27" s="30">
+        <f>ROUND(_xlfn.STDEV.P(H8,H10,H12,H14,H16,H18,H20,H22),1)</f>
+        <v>18.5</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31">
+        <f>ROUND(_xlfn.STDEV.P(K7:K21),1)</f>
+        <v>3.7</v>
+      </c>
+      <c r="L27" s="31">
+        <f>ROUND(_xlfn.STDEV.P(L7:L21),1)</f>
+        <v>5.3</v>
+      </c>
+      <c r="M27" s="31"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
     </row>
     <row r="28" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C28" s="32"/>
@@ -1559,9 +1587,15 @@
       <c r="C29" s="32"/>
       <c r="D29" s="10"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="20"/>
+      <c r="F29" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1575,9 +1609,15 @@
       <c r="C30" s="32"/>
       <c r="D30" s="10"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="20"/>
+      <c r="F30" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>

--- a/generated-tests/firebrigade/backend/direct/metrics.xlsx
+++ b/generated-tests/firebrigade/backend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8E18D6-93AA-469B-986C-2CC9AB0905D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950EE399-5640-4F00-B422-8778CD11A6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>Test</t>
   </si>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="C3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,9 +1516,18 @@
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
+      <c r="F26" s="29">
+        <f>MEDIAN(F8,F10,F12,F14,F16,F18,F20,F22)</f>
+        <v>82.5</v>
+      </c>
+      <c r="G26" s="29">
+        <f>MEDIAN(G8,G10,G12,G14,G16,G18,G20,G22)</f>
+        <v>38.5</v>
+      </c>
+      <c r="H26" s="30">
+        <f>MEDIAN(H8,H10,H12,H14,H16,H18,H20,H22)</f>
+        <v>82</v>
+      </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31">
@@ -1610,7 +1619,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="14"/>
       <c r="F30" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>23</v>
@@ -1631,9 +1640,15 @@
       <c r="C31" s="32"/>
       <c r="D31" s="10"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="20"/>
+      <c r="F31" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
